--- a/output/fit_clients/fit_round_133.xlsx
+++ b/output/fit_clients/fit_round_133.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1775110706.483606</v>
+        <v>1695839659.698833</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07405984436740963</v>
+        <v>0.09970014017800248</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0390591726678364</v>
+        <v>0.04463951470662525</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>887555318.5736507</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2100328010.469291</v>
+        <v>2331154517.219519</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1327653166777108</v>
+        <v>0.1301509059592894</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0391563658683283</v>
+        <v>0.03301786346842173</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1050164060.78491</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4027275791.292703</v>
+        <v>4201124939.783368</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1336048881958197</v>
+        <v>0.1336796440033718</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03245791385541794</v>
+        <v>0.03445904256313938</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>48</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2013637911.716853</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3254093814.890558</v>
+        <v>4089857555.43288</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1066823995054272</v>
+        <v>0.07144815571499326</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03612818618794773</v>
+        <v>0.03651966387178586</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>52</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1627046960.474637</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1988064059.528842</v>
+        <v>2601912534.860028</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1282727140685521</v>
+        <v>0.1408305548073197</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05121155152646028</v>
+        <v>0.03731300213993696</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>20</v>
-      </c>
-      <c r="J6" t="n">
-        <v>994032060.5952226</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2547892322.867848</v>
+        <v>2035208849.515509</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0717180046347269</v>
+        <v>0.1021408062512571</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0338698033690147</v>
+        <v>0.04763259413500514</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>39</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1273946169.789176</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3291003556.535728</v>
+        <v>3540443574.240119</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2133122185889709</v>
+        <v>0.1495311018818345</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03260724249461367</v>
+        <v>0.02373383812005983</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>42</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1645501865.488156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1962276684.862376</v>
+        <v>1816137678.238563</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1215036800401987</v>
+        <v>0.1738939974942575</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03591405251456593</v>
+        <v>0.02275878508230926</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>981138374.2298455</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4494508982.613632</v>
+        <v>4077713501.379007</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1416389234829164</v>
+        <v>0.2144813983668687</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05450969154367847</v>
+        <v>0.05210921446912564</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>57</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2247254551.42634</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3682784294.662763</v>
+        <v>2796067819.702607</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1771395085690536</v>
+        <v>0.1457748616413392</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04680964889235543</v>
+        <v>0.0400584238592151</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>55</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1841392137.819371</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2513570897.507165</v>
+        <v>3312200961.159784</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1339501349388587</v>
+        <v>0.1393253235548376</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04138666557433716</v>
+        <v>0.05071445412729667</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>47</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1256785422.189711</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3963185192.444346</v>
+        <v>3643644891.633327</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08775925681556458</v>
+        <v>0.08685287819824944</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02479491107373956</v>
+        <v>0.02010684592208125</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>45</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1981592652.981089</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3441535373.090421</v>
+        <v>3724541547.574238</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1480144055741836</v>
+        <v>0.1210977843659785</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03065322983455135</v>
+        <v>0.03487584258399876</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>43</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1720767688.971953</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1259627102.246</v>
+        <v>1551835223.307587</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08554579071803518</v>
+        <v>0.0942928908642678</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04698365926537516</v>
+        <v>0.04230112451923577</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>629813582.0838</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2160743616.103069</v>
+        <v>2169937210.09507</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1161761280539877</v>
+        <v>0.1163205637451947</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05066731488453507</v>
+        <v>0.05117340874407846</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>21</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1080371869.135283</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4620459878.371597</v>
+        <v>4923968986.824063</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1543745256993738</v>
+        <v>0.1386651748216117</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04820601761367485</v>
+        <v>0.05082038850386406</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>39</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2310229943.022051</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3573024970.273712</v>
+        <v>3222116289.913854</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1496682774026692</v>
+        <v>0.1446219462856914</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03276912624399727</v>
+        <v>0.02336614569222333</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>44</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1786512473.824851</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1012795573.448887</v>
+        <v>868816357.09557</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1863875905805113</v>
+        <v>0.1752673340336429</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02460006538119168</v>
+        <v>0.02663145701766965</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>506397819.0673305</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2165140913.539419</v>
+        <v>2286661877.767898</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1333494589011355</v>
+        <v>0.1222343193983781</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02456643722889833</v>
+        <v>0.02552082516862085</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>21</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1082570465.460057</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2638834086.48267</v>
+        <v>1786264485.581526</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07805447191799302</v>
+        <v>0.09062674322995193</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03233243250449921</v>
+        <v>0.04400585947605488</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>12</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1319417018.022505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3117109817.219728</v>
+        <v>2449149537.987378</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08942982613926737</v>
+        <v>0.1291319466543258</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03704740765124842</v>
+        <v>0.03727081327234367</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>37</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1558554963.084151</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1373476321.411092</v>
+        <v>1059184580.034327</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1183362941025893</v>
+        <v>0.1568609105077362</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04428641454766854</v>
+        <v>0.03984958558643963</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>686738167.922032</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2822840146.177711</v>
+        <v>3471905237.020162</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1095782678853618</v>
+        <v>0.1225456736316985</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03535208429112768</v>
+        <v>0.03324545342245702</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>39</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1411420120.192864</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1329120621.731749</v>
+        <v>1145085463.846846</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1159649455078865</v>
+        <v>0.09759123298233405</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02087740984140659</v>
+        <v>0.02108579588508914</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>664560299.0811465</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1033137656.725793</v>
+        <v>1146194875.01918</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09105599453376324</v>
+        <v>0.1045726099968291</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03722447380273715</v>
+        <v>0.02440453584534656</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>516568808.4792316</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3848785100.942367</v>
+        <v>3690081443.699347</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1420698231154967</v>
+        <v>0.1228653420587391</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02069190246242628</v>
+        <v>0.02298601719263081</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>31</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1924392568.087856</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3512828537.768416</v>
+        <v>2729666492.102124</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1278632797360053</v>
+        <v>0.1340416439632679</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03746200673941185</v>
+        <v>0.0455561097324961</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>43</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1756414324.567677</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5674084671.690072</v>
+        <v>5705007996.703421</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1329816124651322</v>
+        <v>0.09196177865526291</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0426327437109052</v>
+        <v>0.04417878667527533</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>61</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2837042236.6155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2191449521.865012</v>
+        <v>1948030687.30204</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0882043177227624</v>
+        <v>0.11125765364843</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04022315083228124</v>
+        <v>0.03384979029648103</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1095724820.149057</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1408093399.745966</v>
+        <v>1212919537.395056</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1030139113852183</v>
+        <v>0.07329072121450167</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04786795258746038</v>
+        <v>0.03206710181812331</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>704046602.3083093</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1840906428.408099</v>
+        <v>1202336491.16296</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07997190353687225</v>
+        <v>0.09955216372009269</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02332030830622419</v>
+        <v>0.02442339574123978</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>920453353.0906082</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2351879222.689159</v>
+        <v>2450571911.601465</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1383619758421918</v>
+        <v>0.1884574680585625</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04944210063302441</v>
+        <v>0.06101517666959455</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>40</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1175939662.11719</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1251592488.321261</v>
+        <v>1436463048.71613</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08864508117288893</v>
+        <v>0.07672316108311537</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01855040613737905</v>
+        <v>0.02455217087963233</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>625796240.6788089</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1025524852.513915</v>
+        <v>1107209258.476832</v>
       </c>
       <c r="F35" t="n">
-        <v>0.117418651031593</v>
+        <v>0.07486979024966604</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03581959830778363</v>
+        <v>0.03008294186547449</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>512762439.1976091</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2581608412.341175</v>
+        <v>3040553057.136868</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1187703271347152</v>
+        <v>0.1731641544290154</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02735529331648834</v>
+        <v>0.0209451668747947</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>34</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1290804221.549701</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2906808404.447853</v>
+        <v>2498992528.058656</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08428465645905014</v>
+        <v>0.09363319603978812</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02952230044877163</v>
+        <v>0.0319599927599333</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>34</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1453404354.22517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1944240558.351703</v>
+        <v>1412229700.333071</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07508989777987074</v>
+        <v>0.1155839696534028</v>
       </c>
       <c r="G38" t="n">
-        <v>0.028781434408315</v>
+        <v>0.02741646137242181</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>972120265.6333628</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1988776047.939077</v>
+        <v>1579240854.423259</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1570164940587578</v>
+        <v>0.1848246950487675</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02587401971674331</v>
+        <v>0.0226120481983898</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>994388020.154785</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1811748308.655031</v>
+        <v>1345890331.927604</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1303425310997758</v>
+        <v>0.1527025273097389</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05325739682776395</v>
+        <v>0.04633586112053044</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>905874042.4409686</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2213678200.656835</v>
+        <v>2148351037.947085</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1237876317946319</v>
+        <v>0.1227730807413815</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03621757748530166</v>
+        <v>0.03515138711887593</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>33</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1106839153.570245</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4244838921.610561</v>
+        <v>4073626947.263937</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0866234249633188</v>
+        <v>0.1060142122274954</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02829026452197076</v>
+        <v>0.04068658487215639</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>45</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2122419506.878486</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2434215461.177434</v>
+        <v>2642049934.697251</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1466599587793078</v>
+        <v>0.1790343018765141</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02205767237858588</v>
+        <v>0.02170974890711934</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>44</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1217107785.832717</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1429140286.951349</v>
+        <v>2142888072.888272</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09869753656686273</v>
+        <v>0.0892770674475025</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03244137199636442</v>
+        <v>0.03696783673429865</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>714570135.863045</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1735993117.462921</v>
+        <v>1826007457.137409</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1516159396379038</v>
+        <v>0.1328719842075318</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03976871664247103</v>
+        <v>0.0365939121980847</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>867996522.9542369</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4082333112.386883</v>
+        <v>5588164105.37663</v>
       </c>
       <c r="F46" t="n">
-        <v>0.110777119611613</v>
+        <v>0.1518935702909599</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05849809876950675</v>
+        <v>0.04386217590163358</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>47</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2041166530.394112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5123806859.53006</v>
+        <v>3914804480.702584</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1310497034282308</v>
+        <v>0.1341526269409247</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04744114506884418</v>
+        <v>0.03814785707488503</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>36</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2561903492.557145</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3187359383.059557</v>
+        <v>4240733207.320785</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07318243405893245</v>
+        <v>0.07601072348232794</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02526537416326223</v>
+        <v>0.03837590112952179</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>43</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1593679773.056341</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1857775188.403736</v>
+        <v>1245537374.198926</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1886990978848189</v>
+        <v>0.1408518467408328</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03621293174169386</v>
+        <v>0.03525199712662362</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>928887570.5384954</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3747938840.221278</v>
+        <v>3891788331.331941</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1205518512902967</v>
+        <v>0.1645093039500969</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04785681122117231</v>
+        <v>0.05255800720858606</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>45</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1873969426.675597</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1502697620.058295</v>
+        <v>952213833.9597219</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1839005187623595</v>
+        <v>0.1475460145019731</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04562157865783888</v>
+        <v>0.04084633597184321</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>751348812.4637568</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5125913619.297201</v>
+        <v>4832369440.135303</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08746893953491776</v>
+        <v>0.127207750244771</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03753200354205032</v>
+        <v>0.04003151965290846</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>55</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2562956799.819451</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2817045034.672469</v>
+        <v>2778119673.171335</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1742536971267975</v>
+        <v>0.2002579811310358</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02426957599633689</v>
+        <v>0.03079342628350257</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>38</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1408522562.384037</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3729899739.348026</v>
+        <v>3480822464.381902</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1038219904250041</v>
+        <v>0.1579377251920743</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05054193180951549</v>
+        <v>0.03750564487897302</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>44</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1864949912.492194</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4832474340.702348</v>
+        <v>3391178489.329534</v>
       </c>
       <c r="F55" t="n">
-        <v>0.158148771431891</v>
+        <v>0.1559217086752522</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02409892838246514</v>
+        <v>0.02373869818803246</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>37</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2416237181.955911</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1389672963.81735</v>
+        <v>1855104183.731235</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1327047459534183</v>
+        <v>0.1441562438426151</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04523424243129422</v>
+        <v>0.04833746707390461</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>694836540.465417</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2793842981.124928</v>
+        <v>3919975414.742388</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1484363414164534</v>
+        <v>0.1779675722058596</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02185059806953972</v>
+        <v>0.02462552388226657</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>42</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1396921477.620504</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1639311740.953214</v>
+        <v>1441597505.891026</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1485362017837534</v>
+        <v>0.1425916466088956</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03730437088156194</v>
+        <v>0.03056490486838684</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>819655888.8501366</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3659771558.947907</v>
+        <v>4412200036.688132</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1279618560822044</v>
+        <v>0.1263778919199738</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03889991101579687</v>
+        <v>0.04004941049936991</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>37</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1829885771.787153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3724241802.15066</v>
+        <v>3133867552.483621</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1486214273988569</v>
+        <v>0.1996810764100705</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02803762404271043</v>
+        <v>0.0233799970351077</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>44</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1862121047.318995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2114925334.647563</v>
+        <v>2665088800.092196</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1571726358109065</v>
+        <v>0.1172212748646696</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02939970066243638</v>
+        <v>0.02932427139484323</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>46</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1057462731.207868</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1806940543.230536</v>
+        <v>2087689298.219022</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1794127686525135</v>
+        <v>0.1725454962493401</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03294785962971204</v>
+        <v>0.04848889466831406</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>903470300.6398242</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5453251836.765634</v>
+        <v>3543476588.061166</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07123144192702777</v>
+        <v>0.09803051599064802</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03960761050012416</v>
+        <v>0.04575907841368366</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>39</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2726625915.887428</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3783553704.145289</v>
+        <v>5496853350.539133</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1375392265565098</v>
+        <v>0.1785951881211708</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03309958819082624</v>
+        <v>0.02210203704657025</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>41</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1891776872.658238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5826320402.064841</v>
+        <v>5954918348.773565</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1408921685725185</v>
+        <v>0.1225676342869934</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02088324889653047</v>
+        <v>0.02276395870552757</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>48</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2913160110.59181</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4039662835.528765</v>
+        <v>5665720168.880414</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1397243985399458</v>
+        <v>0.1147562136621887</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04537342002332346</v>
+        <v>0.04180368477114357</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>39</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2019831393.408598</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3198740585.452995</v>
+        <v>2521728665.046677</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06973703646951243</v>
+        <v>0.09255997255369804</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0478761389637937</v>
+        <v>0.03878549166776308</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>42</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1599370294.144287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3946614748.911773</v>
+        <v>4838935289.974989</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09946094741727622</v>
+        <v>0.1480923384695159</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03120072797994769</v>
+        <v>0.04636793631053755</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>42</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1973307366.963337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1836413146.801792</v>
+        <v>1930652881.460297</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1724433356087333</v>
+        <v>0.1814564544381564</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05720849709540924</v>
+        <v>0.03967812680433003</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>918206557.1793952</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2553724970.377483</v>
+        <v>3103473516.320893</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08413310782298518</v>
+        <v>0.08782839022186151</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04288714911350009</v>
+        <v>0.03436642368611811</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>38</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1276862433.159168</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3458573602.615008</v>
+        <v>5384977699.129467</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1762599924028534</v>
+        <v>0.131823215733162</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03160970364716483</v>
+        <v>0.02457386284159513</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>49</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1729286791.873847</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1899470797.308957</v>
+        <v>2239273023.659771</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08754728028993251</v>
+        <v>0.1065979102479861</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04223994283518477</v>
+        <v>0.045107297056503</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>949735361.1346838</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2368821025.52165</v>
+        <v>2854194135.376412</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1054502329915134</v>
+        <v>0.07909904070745152</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05216050122786931</v>
+        <v>0.03838781672067814</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>51</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1184410566.488287</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3627102337.564126</v>
+        <v>3524190382.022745</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1744956750036028</v>
+        <v>0.1581812337513261</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03159559518724737</v>
+        <v>0.03376349162428222</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>45</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1813551179.889898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2074439223.647036</v>
+        <v>2299569361.074984</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1203680119487321</v>
+        <v>0.1270192655354679</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03696412040241326</v>
+        <v>0.0237841860138827</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1037219568.936106</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3788916804.511364</v>
+        <v>3597590960.936408</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08134045901882568</v>
+        <v>0.121594509898248</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0336115664756965</v>
+        <v>0.03199146054397812</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>29</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1894458378.033037</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1959203987.773797</v>
+        <v>2060555961.746258</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1651901055579524</v>
+        <v>0.1157075949159719</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02208704048346494</v>
+        <v>0.03028984436480368</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>979602049.3684751</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4260289884.696226</v>
+        <v>4319496263.13</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08416270037793439</v>
+        <v>0.08799450108769845</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03764144696733224</v>
+        <v>0.05170522657936153</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>46</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2130144889.400757</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1724450578.772721</v>
+        <v>1448645014.130529</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1658176312723944</v>
+        <v>0.1327690977945451</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03601679305631492</v>
+        <v>0.02913382349742847</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>862225362.8074207</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5595681025.96286</v>
+        <v>4875208896.691478</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09415481603569863</v>
+        <v>0.09219581992389651</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02685453595015062</v>
+        <v>0.03792687421639245</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>28</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2797840591.750201</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5187201025.543228</v>
+        <v>4654001237.487192</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1158509853047526</v>
+        <v>0.1333782073543</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02747193471631554</v>
+        <v>0.027752414717922</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>30</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2593600520.001259</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4908847260.593598</v>
+        <v>3557260356.903301</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2123993100098669</v>
+        <v>0.2071738110802415</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02666787641981564</v>
+        <v>0.01823227572686397</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>46</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2454423619.298432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1859594738.428243</v>
+        <v>2431239436.470273</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1194004342149397</v>
+        <v>0.1294026528644768</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02772264232554636</v>
+        <v>0.03971364203968484</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>929797337.0372467</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1756093435.554959</v>
+        <v>2523188776.805254</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08443833335064918</v>
+        <v>0.07719103110286282</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03247738744891262</v>
+        <v>0.04556577206021659</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>878046758.4871697</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3601442654.352639</v>
+        <v>2929081725.978294</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1549075839913935</v>
+        <v>0.1167976968933971</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05487580553606105</v>
+        <v>0.03607620805375035</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>50</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1800721453.683469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2443555005.50627</v>
+        <v>1808444207.989776</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1198525158792684</v>
+        <v>0.129062505172883</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01974448864362054</v>
+        <v>0.02188726633257163</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>14</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1221777592.028378</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1022034986.548309</v>
+        <v>1141650646.426607</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1614324736897151</v>
+        <v>0.1342242597731299</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03344383085972499</v>
+        <v>0.03068378528893411</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>511017503.2054267</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2837334911.166266</v>
+        <v>3058251955.758507</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1676085620405919</v>
+        <v>0.1215929469682735</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02803655536276188</v>
+        <v>0.03597052325023148</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>53</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1418667469.910645</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2828626612.274137</v>
+        <v>3205965245.493784</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1176719182034433</v>
+        <v>0.1551459820132964</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02668646045869918</v>
+        <v>0.03877319803737997</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>45</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1414313356.763853</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1325882320.26334</v>
+        <v>1743977805.232049</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1038033191805583</v>
+        <v>0.08866531227843626</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03976648446437341</v>
+        <v>0.04510130624349231</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>662941106.9448968</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1676685601.726794</v>
+        <v>1437926901.824092</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1935219783231348</v>
+        <v>0.1464882675848527</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04592271503466021</v>
+        <v>0.04085686932600809</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>838342816.1737689</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1874878656.855445</v>
+        <v>2762707948.707208</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1015781659087648</v>
+        <v>0.1089903797361221</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04663038013040995</v>
+        <v>0.0424954418121072</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>32</v>
-      </c>
-      <c r="J92" t="n">
-        <v>937439265.1133975</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4442806460.868362</v>
+        <v>4431693034.523594</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1210651550045857</v>
+        <v>0.1060296932012113</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05184380123119018</v>
+        <v>0.04439087216368463</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>40</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2221403202.352439</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1927097195.192646</v>
+        <v>1835942694.766934</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1059792323895315</v>
+        <v>0.107915506707062</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04290590556974455</v>
+        <v>0.03108188049675959</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>963548586.3972931</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2295985987.954961</v>
+        <v>3039345287.001919</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08850907042682379</v>
+        <v>0.1133446924574525</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03189680509166089</v>
+        <v>0.03905980696972703</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>32</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1147993044.866152</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1473387855.485327</v>
+        <v>2279503019.706609</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1223934914999885</v>
+        <v>0.1246154358369378</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0289217287654558</v>
+        <v>0.04648450256157152</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>736693970.8925927</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3251795906.997907</v>
+        <v>3451774118.208686</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1125585252250936</v>
+        <v>0.1391007431058005</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02145400933189886</v>
+        <v>0.0277343064896083</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>43</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1625897949.651286</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2828884805.193672</v>
+        <v>3825763908.038335</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08470284281282719</v>
+        <v>0.08275299627842926</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02588460764984177</v>
+        <v>0.02109019974313618</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>35</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1414442375.645607</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2186477367.444014</v>
+        <v>2623549449.395686</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1286996001878633</v>
+        <v>0.1133188256450176</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0261326036340721</v>
+        <v>0.02532335739673713</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>42</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1093238610.662459</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4490873165.791411</v>
+        <v>4687348610.805447</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1392015680210242</v>
+        <v>0.1101524541226005</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01950377395143905</v>
+        <v>0.02810628075842172</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>41</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2245436692.708523</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2307195351.033242</v>
+        <v>3242565309.33459</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1781258039250215</v>
+        <v>0.1804025547131027</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03777820596097007</v>
+        <v>0.05820042218961174</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>55</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1153597672.97122</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_133.xlsx
+++ b/output/fit_clients/fit_round_133.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1695839659.698833</v>
+        <v>1674264035.955932</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09970014017800248</v>
+        <v>0.08819442858199182</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04463951470662525</v>
+        <v>0.03489738269760937</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2331154517.219519</v>
+        <v>1610754336.88447</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1301509059592894</v>
+        <v>0.1570430686058907</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03301786346842173</v>
+        <v>0.03802724542448476</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4201124939.783368</v>
+        <v>3757356316.131414</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1336796440033718</v>
+        <v>0.148491238393558</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03445904256313938</v>
+        <v>0.02737962891641209</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4089857555.43288</v>
+        <v>4161072418.280953</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07144815571499326</v>
+        <v>0.07895440641305471</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03651966387178586</v>
+        <v>0.03330328694802254</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2601912534.860028</v>
+        <v>1848569367.171157</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1408305548073197</v>
+        <v>0.09648514097186864</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03731300213993696</v>
+        <v>0.04026261122159249</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2035208849.515509</v>
+        <v>2544024681.14639</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1021408062512571</v>
+        <v>0.09905216839236745</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04763259413500514</v>
+        <v>0.03775655944057105</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3540443574.240119</v>
+        <v>3115051298.442489</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1495311018818345</v>
+        <v>0.1590411229173177</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02373383812005983</v>
+        <v>0.03356223657363828</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1816137678.238563</v>
+        <v>1654192355.659229</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1738939974942575</v>
+        <v>0.1967826631375094</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02275878508230926</v>
+        <v>0.02796516301612503</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4077713501.379007</v>
+        <v>4415860358.142084</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2144813983668687</v>
+        <v>0.134723019465995</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05210921446912564</v>
+        <v>0.04468596451323058</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2796067819.702607</v>
+        <v>2922164627.583782</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1457748616413392</v>
+        <v>0.1238298530836998</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0400584238592151</v>
+        <v>0.03448243556795071</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3312200961.159784</v>
+        <v>2075858160.561602</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1393253235548376</v>
+        <v>0.1553490438643666</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05071445412729667</v>
+        <v>0.04127164990983128</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,13 +794,13 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3643644891.633327</v>
+        <v>3457344001.705229</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08685287819824944</v>
+        <v>0.06166145786027826</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02010684592208125</v>
+        <v>0.02729088962202292</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3724541547.574238</v>
+        <v>3543934601.167234</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1210977843659785</v>
+        <v>0.1708177988839276</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03487584258399876</v>
+        <v>0.0346880261412516</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1551835223.307587</v>
+        <v>1453939881.579538</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0942928908642678</v>
+        <v>0.1038463114474992</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04230112451923577</v>
+        <v>0.03426866671972256</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2169937210.09507</v>
+        <v>2051012122.03198</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1163205637451947</v>
+        <v>0.1097970971467195</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05117340874407846</v>
+        <v>0.04979787197603036</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4923968986.824063</v>
+        <v>3431819339.969999</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1386651748216117</v>
+        <v>0.1165052499758728</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05082038850386406</v>
+        <v>0.05003940596800228</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3222116289.913854</v>
+        <v>3865974367.782043</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1446219462856914</v>
+        <v>0.184542270575924</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02336614569222333</v>
+        <v>0.02415295301099707</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>868816357.09557</v>
+        <v>835291209.659097</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1752673340336429</v>
+        <v>0.1217455546599803</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02663145701766965</v>
+        <v>0.0196551227188933</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2286661877.767898</v>
+        <v>1911291025.331708</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1222343193983781</v>
+        <v>0.118732316519773</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02552082516862085</v>
+        <v>0.0237746898795864</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1786264485.581526</v>
+        <v>2104166209.86377</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09062674322995193</v>
+        <v>0.0785225787142505</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04400585947605488</v>
+        <v>0.04084232050665137</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2449149537.987378</v>
+        <v>3949010342.410739</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1291319466543258</v>
+        <v>0.1141546759420679</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03727081327234367</v>
+        <v>0.04865299291266535</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1059184580.034327</v>
+        <v>977541372.428661</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1568609105077362</v>
+        <v>0.1442270147514744</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03984958558643963</v>
+        <v>0.04894839147936881</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3471905237.020162</v>
+        <v>2518274725.211544</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1225456736316985</v>
+        <v>0.1312853716924652</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03324545342245702</v>
+        <v>0.02290515356855465</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1145085463.846846</v>
+        <v>1136419325.690274</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09759123298233405</v>
+        <v>0.1010027313528132</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02108579588508914</v>
+        <v>0.02100648292207173</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,16 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1146194875.01918</v>
+        <v>1033976973.796465</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1045726099968291</v>
+        <v>0.07735363627761353</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02440453584534656</v>
+        <v>0.03747665191727556</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3690081443.699347</v>
+        <v>4276126939.793362</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1228653420587391</v>
+        <v>0.1506799442693175</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02298601719263081</v>
+        <v>0.01700606441726918</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2729666492.102124</v>
+        <v>2610571458.506097</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1340416439632679</v>
+        <v>0.1287535628913888</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0455561097324961</v>
+        <v>0.03900708839896797</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5705007996.703421</v>
+        <v>4509508488.797915</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09196177865526291</v>
+        <v>0.1354434018150514</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04417878667527533</v>
+        <v>0.02978505171253575</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1948030687.30204</v>
+        <v>1458217963.914666</v>
       </c>
       <c r="F30" t="n">
-        <v>0.11125765364843</v>
+        <v>0.1203558722593741</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03384979029648103</v>
+        <v>0.025697297649384</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1212919537.395056</v>
+        <v>1339158738.89928</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07329072121450167</v>
+        <v>0.07051552841061358</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03206710181812331</v>
+        <v>0.04844265983663192</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1202336491.16296</v>
+        <v>1435077970.54859</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09955216372009269</v>
+        <v>0.09948228761217782</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02442339574123978</v>
+        <v>0.02851344928680934</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2450571911.601465</v>
+        <v>2707194348.178241</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1884574680585625</v>
+        <v>0.1663953952507583</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06101517666959455</v>
+        <v>0.0398192338651382</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,16 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1436463048.71613</v>
+        <v>1350920057.181195</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07672316108311537</v>
+        <v>0.1142174258537164</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02455217087963233</v>
+        <v>0.01901018247451582</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1107209258.476832</v>
+        <v>954364638.3577988</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07486979024966604</v>
+        <v>0.09208713156703269</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03008294186547449</v>
+        <v>0.03035134844970509</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3040553057.136868</v>
+        <v>3147636741.446711</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1731641544290154</v>
+        <v>0.1764610753703686</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0209451668747947</v>
+        <v>0.02183077867661797</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2498992528.058656</v>
+        <v>1805081364.420079</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09363319603978812</v>
+        <v>0.07549016494666315</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0319599927599333</v>
+        <v>0.02913492202323804</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1412229700.333071</v>
+        <v>1413693998.584762</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1155839696534028</v>
+        <v>0.0843169260649359</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02741646137242181</v>
+        <v>0.02839817240297426</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1579240854.423259</v>
+        <v>1524363587.300291</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1848246950487675</v>
+        <v>0.1290127223371487</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0226120481983898</v>
+        <v>0.0249042942354728</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1345890331.927604</v>
+        <v>1363481344.822765</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1527025273097389</v>
+        <v>0.1182593377806345</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04633586112053044</v>
+        <v>0.05847261935675913</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2148351037.947085</v>
+        <v>2067516162.550167</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1227730807413815</v>
+        <v>0.1645328763878057</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03515138711887593</v>
+        <v>0.04280020675912611</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4073626947.263937</v>
+        <v>2648804933.9243</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1060142122274954</v>
+        <v>0.1020111452866017</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04068658487215639</v>
+        <v>0.03153900522715491</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2642049934.697251</v>
+        <v>2759936318.461914</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1790343018765141</v>
+        <v>0.1955899847874225</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02170974890711934</v>
+        <v>0.02196465544631798</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2142888072.888272</v>
+        <v>1700408388.096257</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0892770674475025</v>
+        <v>0.08859143586911518</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03696783673429865</v>
+        <v>0.03649420270081747</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1826007457.137409</v>
+        <v>2239440624.203123</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1328719842075318</v>
+        <v>0.1244409692525126</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0365939121980847</v>
+        <v>0.03888146030538398</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5588164105.37663</v>
+        <v>5427700101.791744</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1518935702909599</v>
+        <v>0.1138471874801578</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04386217590163358</v>
+        <v>0.04433033843736991</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3914804480.702584</v>
+        <v>4488617070.447147</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1341526269409247</v>
+        <v>0.2031345501990014</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03814785707488503</v>
+        <v>0.05868026868765063</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4240733207.320785</v>
+        <v>3870251576.485789</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07601072348232794</v>
+        <v>0.09905263973911811</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03837590112952179</v>
+        <v>0.03469647706344409</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1245537374.198926</v>
+        <v>1798899608.392468</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1408518467408328</v>
+        <v>0.1581211736559373</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03525199712662362</v>
+        <v>0.0317509510268151</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3891788331.331941</v>
+        <v>2665839212.101857</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1645093039500969</v>
+        <v>0.1588199059882786</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05255800720858606</v>
+        <v>0.03613423600848568</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>952213833.9597219</v>
+        <v>1517978589.540613</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1475460145019731</v>
+        <v>0.1743608466064204</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04084633597184321</v>
+        <v>0.04623061361472033</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4832369440.135303</v>
+        <v>3463390405.917997</v>
       </c>
       <c r="F52" t="n">
-        <v>0.127207750244771</v>
+        <v>0.1290944026527489</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04003151965290846</v>
+        <v>0.05497113205323959</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2778119673.171335</v>
+        <v>3477585199.320006</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2002579811310358</v>
+        <v>0.1266327193944307</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03079342628350257</v>
+        <v>0.02904032580196141</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3480822464.381902</v>
+        <v>4033936553.529064</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1579377251920743</v>
+        <v>0.1405158344556603</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03750564487897302</v>
+        <v>0.05059226861269715</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3391178489.329534</v>
+        <v>3806378771.191427</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1559217086752522</v>
+        <v>0.2130584665528484</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02373869818803246</v>
+        <v>0.0260455025046363</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,16 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1855104183.731235</v>
+        <v>1821611932.823158</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1441562438426151</v>
+        <v>0.1037398857485158</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04833746707390461</v>
+        <v>0.04623568433556734</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3919975414.742388</v>
+        <v>2966688825.491163</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1779675722058596</v>
+        <v>0.1419453667290952</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02462552388226657</v>
+        <v>0.02717703508012281</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1441597505.891026</v>
+        <v>1567812972.324487</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1425916466088956</v>
+        <v>0.1425461501458956</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03056490486838684</v>
+        <v>0.03120032867091647</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4412200036.688132</v>
+        <v>4015369645.828264</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1263778919199738</v>
+        <v>0.1292840399251927</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04004941049936991</v>
+        <v>0.04192468228399678</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3133867552.483621</v>
+        <v>3068336841.366444</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1996810764100705</v>
+        <v>0.1642317476589163</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0233799970351077</v>
+        <v>0.02783329961416734</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2665088800.092196</v>
+        <v>2080023872.982236</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1172212748646696</v>
+        <v>0.1317891734877126</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02932427139484323</v>
+        <v>0.03090830373327379</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2087689298.219022</v>
+        <v>1612818155.523399</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1725454962493401</v>
+        <v>0.1702064986192424</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04848889466831406</v>
+        <v>0.03216203589370872</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3543476588.061166</v>
+        <v>4537061301.686004</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09803051599064802</v>
+        <v>0.08802763312226067</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04575907841368366</v>
+        <v>0.04745134016264838</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5496853350.539133</v>
+        <v>4099119316.158829</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1785951881211708</v>
+        <v>0.1777997349493017</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02210203704657025</v>
+        <v>0.02257047569039429</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5954918348.773565</v>
+        <v>4817819470.956518</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1225676342869934</v>
+        <v>0.1375633591907036</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02276395870552757</v>
+        <v>0.02291487226226206</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5665720168.880414</v>
+        <v>4567103532.541961</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1147562136621887</v>
+        <v>0.145903099280547</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04180368477114357</v>
+        <v>0.03736561729495718</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2521728665.046677</v>
+        <v>2923064941.317693</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09255997255369804</v>
+        <v>0.08907366954557572</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03878549166776308</v>
+        <v>0.04803105919805521</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4838935289.974989</v>
+        <v>4676394138.639615</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1480923384695159</v>
+        <v>0.1227356425918876</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04636793631053755</v>
+        <v>0.04796384426539592</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1930652881.460297</v>
+        <v>1675359176.189748</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1814564544381564</v>
+        <v>0.1748746549772494</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03967812680433003</v>
+        <v>0.04496081569497946</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3103473516.320893</v>
+        <v>2595414309.247923</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08782839022186151</v>
+        <v>0.08356494362832827</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03436642368611811</v>
+        <v>0.03483598920634666</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5384977699.129467</v>
+        <v>3727465476.977912</v>
       </c>
       <c r="F71" t="n">
-        <v>0.131823215733162</v>
+        <v>0.1741599891733744</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02457386284159513</v>
+        <v>0.02544191227848814</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2239273023.659771</v>
+        <v>1536435734.860974</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1065979102479861</v>
+        <v>0.06635812271242419</v>
       </c>
       <c r="G72" t="n">
-        <v>0.045107297056503</v>
+        <v>0.03623591811820731</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2854194135.376412</v>
+        <v>2898614276.679482</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07909904070745152</v>
+        <v>0.06952062016389775</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03838781672067814</v>
+        <v>0.0503666614457615</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3524190382.022745</v>
+        <v>2984400775.812172</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1581812337513261</v>
+        <v>0.159677773379021</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03376349162428222</v>
+        <v>0.0297146243603213</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2299569361.074984</v>
+        <v>2317366739.726272</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1270192655354679</v>
+        <v>0.1072943537316772</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0237841860138827</v>
+        <v>0.03226922662554126</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3597590960.936408</v>
+        <v>3857299963.245908</v>
       </c>
       <c r="F76" t="n">
-        <v>0.121594509898248</v>
+        <v>0.1206618044138347</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03199146054397812</v>
+        <v>0.02478037046265479</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2060555961.746258</v>
+        <v>2083937151.973829</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1157075949159719</v>
+        <v>0.1405900833356673</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03028984436480368</v>
+        <v>0.01962852816286119</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4319496263.13</v>
+        <v>2938594466.241199</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08799450108769845</v>
+        <v>0.136211237392475</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05170522657936153</v>
+        <v>0.04588247531126904</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1448645014.130529</v>
+        <v>1406931049.637216</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1327690977945451</v>
+        <v>0.1230120169522834</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02913382349742847</v>
+        <v>0.03009957571863981</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4875208896.691478</v>
+        <v>4206983940.329539</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09219581992389651</v>
+        <v>0.07094839929359915</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03792687421639245</v>
+        <v>0.03735919505408022</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4654001237.487192</v>
+        <v>4970744449.848108</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1333782073543</v>
+        <v>0.1283468242081624</v>
       </c>
       <c r="G81" t="n">
-        <v>0.027752414717922</v>
+        <v>0.02851123627002281</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3557260356.903301</v>
+        <v>3663803985.959436</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2071738110802415</v>
+        <v>0.1382708090977629</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01823227572686397</v>
+        <v>0.02901374909039901</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2431239436.470273</v>
+        <v>1870379981.972625</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1294026528644768</v>
+        <v>0.1466096369734923</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03971364203968484</v>
+        <v>0.0451282206465649</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2523188776.805254</v>
+        <v>2404328152.921909</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07719103110286282</v>
+        <v>0.1165275778631014</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04556577206021659</v>
+        <v>0.034648798904222</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2929081725.978294</v>
+        <v>3431140653.663096</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1167976968933971</v>
+        <v>0.1233690960486336</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03607620805375035</v>
+        <v>0.0443498665248447</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,16 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1808444207.989776</v>
+        <v>1883459616.923982</v>
       </c>
       <c r="F86" t="n">
-        <v>0.129062505172883</v>
+        <v>0.1081816607810736</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02188726633257163</v>
+        <v>0.02031250540163661</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1141650646.426607</v>
+        <v>1123145506.667356</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1342242597731299</v>
+        <v>0.1246287200308026</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03068378528893411</v>
+        <v>0.03734333000116729</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3058251955.758507</v>
+        <v>3008600674.939997</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1215929469682735</v>
+        <v>0.1191807592751177</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03597052325023148</v>
+        <v>0.03057575161386226</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3205965245.493784</v>
+        <v>2851025769.713114</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1551459820132964</v>
+        <v>0.136438795804004</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03877319803737997</v>
+        <v>0.03337332412157164</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1743977805.232049</v>
+        <v>1761058754.623022</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08866531227843626</v>
+        <v>0.1212450172694949</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04510130624349231</v>
+        <v>0.03802783299079117</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1437926901.824092</v>
+        <v>1513399492.536548</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1464882675848527</v>
+        <v>0.1684510242347499</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04085686932600809</v>
+        <v>0.0411416258025195</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2762707948.707208</v>
+        <v>2220970211.294384</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1089903797361221</v>
+        <v>0.1028305815334494</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0424954418121072</v>
+        <v>0.0406495957497369</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4431693034.523594</v>
+        <v>3900224410.42064</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1060296932012113</v>
+        <v>0.1208696325287199</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04439087216368463</v>
+        <v>0.03328423400812897</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1835942694.766934</v>
+        <v>1884331668.234333</v>
       </c>
       <c r="F94" t="n">
-        <v>0.107915506707062</v>
+        <v>0.1513855794347447</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03108188049675959</v>
+        <v>0.02890626192756179</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3039345287.001919</v>
+        <v>2697379399.836927</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1133446924574525</v>
+        <v>0.1367825391930141</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03905980696972703</v>
+        <v>0.04629135808212909</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2279503019.706609</v>
+        <v>2319865700.785209</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1246154358369378</v>
+        <v>0.1143165353870025</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04648450256157152</v>
+        <v>0.04409411446016874</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3451774118.208686</v>
+        <v>3957648444.416944</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1391007431058005</v>
+        <v>0.1517600857128711</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0277343064896083</v>
+        <v>0.01789951613253495</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3825763908.038335</v>
+        <v>3726273105.691156</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08275299627842926</v>
+        <v>0.1118421712944573</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02109019974313618</v>
+        <v>0.02100635099471243</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,16 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2623549449.395686</v>
+        <v>2342601913.162253</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1133188256450176</v>
+        <v>0.1193309873127947</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02532335739673713</v>
+        <v>0.03549201434065118</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4687348610.805447</v>
+        <v>3295307940.389128</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1101524541226005</v>
+        <v>0.1187715208358484</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02810628075842172</v>
+        <v>0.02546198091193994</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3242565309.33459</v>
+        <v>2245036210.765714</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1804025547131027</v>
+        <v>0.1639728393405772</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05820042218961174</v>
+        <v>0.04048684624314993</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_133.xlsx
+++ b/output/fit_clients/fit_round_133.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1674264035.955932</v>
+        <v>1829584264.324236</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08819442858199182</v>
+        <v>0.1104517536010604</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03489738269760937</v>
+        <v>0.02953343991534879</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1610754336.88447</v>
+        <v>1904970924.07352</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1570430686058907</v>
+        <v>0.1301767818548247</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03802724542448476</v>
+        <v>0.03196024287280836</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3757356316.131414</v>
+        <v>4082865574.635759</v>
       </c>
       <c r="F4" t="n">
-        <v>0.148491238393558</v>
+        <v>0.1148768615114756</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02737962891641209</v>
+        <v>0.03386447754566027</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>77</v>
+      </c>
+      <c r="J4" t="n">
+        <v>133</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4161072418.280953</v>
+        <v>2930483866.537489</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07895440641305471</v>
+        <v>0.08663680266547101</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03330328694802254</v>
+        <v>0.04725294172802397</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>55</v>
+      </c>
+      <c r="J5" t="n">
+        <v>132</v>
+      </c>
+      <c r="K5" t="n">
+        <v>103.2020248620321</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1848569367.171157</v>
+        <v>2853668228.583191</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09648514097186864</v>
+        <v>0.1146536160529914</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04026261122159249</v>
+        <v>0.05347944951852598</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2544024681.14639</v>
+        <v>2193304944.587492</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09905216839236745</v>
+        <v>0.08888431463966348</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03775655944057105</v>
+        <v>0.04743728535454081</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +713,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3115051298.442489</v>
+        <v>3597556241.552009</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1590411229173177</v>
+        <v>0.196902489707876</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03356223657363828</v>
+        <v>0.0225950698113532</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>39</v>
+      </c>
+      <c r="J8" t="n">
+        <v>133</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1654192355.659229</v>
+        <v>1950367399.292457</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1967826631375094</v>
+        <v>0.1584281699940268</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02796516301612503</v>
+        <v>0.02694741149497759</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,17 +783,24 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4415860358.142084</v>
+        <v>5869826050.545661</v>
       </c>
       <c r="F10" t="n">
-        <v>0.134723019465995</v>
+        <v>0.161414496051804</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04468596451323058</v>
+        <v>0.03392888775484504</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>121</v>
+      </c>
+      <c r="J10" t="n">
+        <v>133</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,23 +812,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2922164627.583782</v>
+        <v>4050017261.39702</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1238298530836998</v>
+        <v>0.1606514285667262</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03448243556795071</v>
+        <v>0.03856174582497562</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>57</v>
+      </c>
+      <c r="J11" t="n">
+        <v>133</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +847,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2075858160.561602</v>
+        <v>2136789682.275989</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1553490438643666</v>
+        <v>0.1433527858773019</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04127164990983128</v>
+        <v>0.05406226857204489</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +882,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3457344001.705229</v>
+        <v>4047173547.040537</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06166145786027826</v>
+        <v>0.08138798941441472</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02729088962202292</v>
+        <v>0.02944704047953734</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>65</v>
+      </c>
+      <c r="J13" t="n">
+        <v>132</v>
+      </c>
+      <c r="K13" t="n">
+        <v>142.319677745542</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +919,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3543934601.167234</v>
+        <v>3330771947.174145</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1708177988839276</v>
+        <v>0.1401367809582481</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0346880261412516</v>
+        <v>0.02858482635521598</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>24</v>
+      </c>
+      <c r="J14" t="n">
+        <v>132</v>
+      </c>
+      <c r="K14" t="n">
+        <v>116.8275482198839</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1453939881.579538</v>
+        <v>1164719932.234374</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1038463114474992</v>
+        <v>0.07920606644351452</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03426866671972256</v>
+        <v>0.03866232298608248</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2051012122.03198</v>
+        <v>2300856015.444333</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1097970971467195</v>
+        <v>0.09055246655647432</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04979787197603036</v>
+        <v>0.04500649366030971</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1026,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3431819339.969999</v>
+        <v>3899194053.503772</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1165052499758728</v>
+        <v>0.1691271822229587</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05003940596800228</v>
+        <v>0.03512089309112736</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>64</v>
+      </c>
+      <c r="J17" t="n">
+        <v>132</v>
+      </c>
+      <c r="K17" t="n">
+        <v>130.3832078576897</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3865974367.782043</v>
+        <v>3291039443.878238</v>
       </c>
       <c r="F18" t="n">
-        <v>0.184542270575924</v>
+        <v>0.1555055330527064</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02415295301099707</v>
+        <v>0.02504325804352451</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>35</v>
+      </c>
+      <c r="J18" t="n">
+        <v>130</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>835291209.659097</v>
+        <v>1045998183.322376</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1217455546599803</v>
+        <v>0.1748255574416638</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0196551227188933</v>
+        <v>0.01766035846150971</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1911291025.331708</v>
+        <v>2449177146.989137</v>
       </c>
       <c r="F20" t="n">
-        <v>0.118732316519773</v>
+        <v>0.1058225848178917</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0237746898795864</v>
+        <v>0.02370530178759882</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2104166209.86377</v>
+        <v>2206274075.811234</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0785225787142505</v>
+        <v>0.1027011171774777</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04084232050665137</v>
+        <v>0.03210029377861424</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1203,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3949010342.410739</v>
+        <v>3138517971.936795</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1141546759420679</v>
+        <v>0.1425714217940689</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04865299291266535</v>
+        <v>0.04709434808396144</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>34</v>
+      </c>
+      <c r="J22" t="n">
+        <v>132</v>
+      </c>
+      <c r="K22" t="n">
+        <v>97.39721854562889</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>977541372.428661</v>
+        <v>1548361716.380197</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1442270147514744</v>
+        <v>0.1235867884856366</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04894839147936881</v>
+        <v>0.04823851512556897</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1275,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2518274725.211544</v>
+        <v>2597399945.987006</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1312853716924652</v>
+        <v>0.1250748459241661</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02290515356855465</v>
+        <v>0.03529636796711445</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>38</v>
+      </c>
+      <c r="J24" t="n">
+        <v>127</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1316,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1136419325.690274</v>
+        <v>1439251988.728003</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1010027313528132</v>
+        <v>0.08455509553409905</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02100648292207173</v>
+        <v>0.02568182250848076</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1351,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1033976973.796465</v>
+        <v>1282320176.939476</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07735363627761353</v>
+        <v>0.08630580596580958</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03747665191727556</v>
+        <v>0.02834543123532036</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1380,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4276126939.793362</v>
+        <v>4035130781.766881</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1506799442693175</v>
+        <v>0.1155470310513739</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01700606441726918</v>
+        <v>0.02437801715919574</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>52</v>
+      </c>
+      <c r="J27" t="n">
+        <v>133</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2610571458.506097</v>
+        <v>2776742524.601929</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1287535628913888</v>
+        <v>0.1500199250100119</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03900708839896797</v>
+        <v>0.03086332672931174</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>29</v>
+      </c>
+      <c r="J28" t="n">
+        <v>130</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4509508488.797915</v>
+        <v>5267085143.429435</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1354434018150514</v>
+        <v>0.1402761094590419</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02978505171253575</v>
+        <v>0.02964167559365596</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>123</v>
+      </c>
+      <c r="J29" t="n">
+        <v>133</v>
+      </c>
+      <c r="K29" t="n">
+        <v>171.0622328902996</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1458217963.914666</v>
+        <v>1483926563.544424</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1203558722593741</v>
+        <v>0.113659108629721</v>
       </c>
       <c r="G30" t="n">
-        <v>0.025697297649384</v>
+        <v>0.02935695740078002</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1339158738.89928</v>
+        <v>1471636260.68123</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07051552841061358</v>
+        <v>0.08378563014727339</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04844265983663192</v>
+        <v>0.0513566285752872</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1435077970.54859</v>
+        <v>1366680195.763888</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09948228761217782</v>
+        <v>0.08312141656915957</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02851344928680934</v>
+        <v>0.023841158902203</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1598,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2707194348.178241</v>
+        <v>3023183591.041958</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1663953952507583</v>
+        <v>0.1889302756732569</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0398192338651382</v>
+        <v>0.053981430745119</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1350920057.181195</v>
+        <v>1565450248.664536</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1142174258537164</v>
+        <v>0.08493430229776078</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01901018247451582</v>
+        <v>0.0204067672739052</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>954364638.3577988</v>
+        <v>893518563.385325</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09208713156703269</v>
+        <v>0.07441500824561123</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03035134844970509</v>
+        <v>0.02913034728118009</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3147636741.446711</v>
+        <v>3157209440.410601</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1764610753703686</v>
+        <v>0.1605304678325689</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02183077867661797</v>
+        <v>0.02662528246972608</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>86</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1738,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1805081364.420079</v>
+        <v>2889371389.103755</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07549016494666315</v>
+        <v>0.08140007833279453</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02913492202323804</v>
+        <v>0.04217638102128971</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1413693998.584762</v>
+        <v>1445968481.710305</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0843169260649359</v>
+        <v>0.1110677274359297</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02839817240297426</v>
+        <v>0.02750409442499589</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1524363587.300291</v>
+        <v>1945077130.435801</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1290127223371487</v>
+        <v>0.1296910406914243</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0249042942354728</v>
+        <v>0.03193062291381697</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1363481344.822765</v>
+        <v>1200853266.335575</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1182593377806345</v>
+        <v>0.1475461095675792</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05847261935675913</v>
+        <v>0.05581907148962554</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2067516162.550167</v>
+        <v>2706648064.995271</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1645328763878057</v>
+        <v>0.166824170853778</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04280020675912611</v>
+        <v>0.04397313880245916</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1907,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2648804933.9243</v>
+        <v>4010711118.799047</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1020111452866017</v>
+        <v>0.1017946830206034</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03153900522715491</v>
+        <v>0.03559284319497809</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>49</v>
+      </c>
+      <c r="J42" t="n">
+        <v>133</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2759936318.461914</v>
+        <v>2587358851.033863</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1955899847874225</v>
+        <v>0.1890190986164605</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02196465544631798</v>
+        <v>0.02239149522370548</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1700408388.096257</v>
+        <v>2112696195.114856</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08859143586911518</v>
+        <v>0.08418264141647325</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03649420270081747</v>
+        <v>0.03453085238607301</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2239440624.203123</v>
+        <v>1733472300.745259</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1244409692525126</v>
+        <v>0.1767947441962939</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03888146030538398</v>
+        <v>0.03801604330517318</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2047,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5427700101.791744</v>
+        <v>4768067616.807425</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1138471874801578</v>
+        <v>0.1128467395383858</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04433033843736991</v>
+        <v>0.05348748451315168</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>76</v>
+      </c>
+      <c r="J46" t="n">
+        <v>132</v>
+      </c>
+      <c r="K46" t="n">
+        <v>147.2248885214136</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2084,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4488617070.447147</v>
+        <v>4212602423.641077</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2031345501990014</v>
+        <v>0.1764938050363547</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05868026868765063</v>
+        <v>0.04900379993880632</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>59</v>
+      </c>
+      <c r="J47" t="n">
+        <v>132</v>
+      </c>
+      <c r="K47" t="n">
+        <v>121.4444544636558</v>
       </c>
     </row>
     <row r="48">
@@ -1774,16 +2127,25 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3870251576.485789</v>
+        <v>3660120833.711106</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09905263973911811</v>
+        <v>0.09996218487468773</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03469647706344409</v>
+        <v>0.02466695957114194</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>53</v>
+      </c>
+      <c r="J48" t="n">
+        <v>133</v>
+      </c>
+      <c r="K48" t="n">
+        <v>148.3397133375939</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2164,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1798899608.392468</v>
+        <v>1767855969.9477</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1581211736559373</v>
+        <v>0.1463474121474278</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0317509510268151</v>
+        <v>0.03185943395915635</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2193,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2665839212.101857</v>
+        <v>2850394117.96787</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1588199059882786</v>
+        <v>0.141266203289979</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03613423600848568</v>
+        <v>0.04947800708969927</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>46</v>
+      </c>
+      <c r="J50" t="n">
+        <v>131</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1517978589.540613</v>
+        <v>1310277758.954213</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1743608466064204</v>
+        <v>0.1368502154021252</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04623061361472033</v>
+        <v>0.03471905228269749</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,17 +2269,24 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3463390405.917997</v>
+        <v>4421547969.286085</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1290944026527489</v>
+        <v>0.1238052518409983</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05497113205323959</v>
+        <v>0.04716768558361901</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>100</v>
+      </c>
+      <c r="J52" t="n">
+        <v>133</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3477585199.320006</v>
+        <v>3201435919.111083</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1266327193944307</v>
+        <v>0.1994364924041312</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02904032580196141</v>
+        <v>0.02657313959822625</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>16</v>
+      </c>
+      <c r="J53" t="n">
+        <v>129</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2333,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4033936553.529064</v>
+        <v>3438686826.228033</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1405158344556603</v>
+        <v>0.1222492616536758</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05059226861269715</v>
+        <v>0.04240872544790277</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>60</v>
+      </c>
+      <c r="J54" t="n">
+        <v>131</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2368,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3806378771.191427</v>
+        <v>3270788289.402004</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2130584665528484</v>
+        <v>0.1873087553994102</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0260455025046363</v>
+        <v>0.03257807199553133</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>61</v>
+      </c>
+      <c r="J55" t="n">
+        <v>132</v>
+      </c>
+      <c r="K55" t="n">
+        <v>108.8603450691565</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1821611932.823158</v>
+        <v>1157227443.097813</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1037398857485158</v>
+        <v>0.1249502727718703</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04623568433556734</v>
+        <v>0.04728839831708124</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2440,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2966688825.491163</v>
+        <v>2834264745.850707</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1419453667290952</v>
+        <v>0.165922161761274</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02717703508012281</v>
+        <v>0.01765226683604372</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>53</v>
+      </c>
+      <c r="J57" t="n">
+        <v>132</v>
+      </c>
+      <c r="K57" t="n">
+        <v>84.11536680586114</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1567812972.324487</v>
+        <v>1359637174.164363</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1425461501458956</v>
+        <v>0.1875100176645201</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03120032867091647</v>
+        <v>0.03549697353953542</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2512,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4015369645.828264</v>
+        <v>3880475177.782645</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1292840399251927</v>
+        <v>0.1261341601441305</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04192468228399678</v>
+        <v>0.03591993715078079</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>64</v>
+      </c>
+      <c r="J59" t="n">
+        <v>133</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3068336841.366444</v>
+        <v>3355865995.423549</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1642317476589163</v>
+        <v>0.1264055539375754</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02783329961416734</v>
+        <v>0.02858965326920445</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>21</v>
+      </c>
+      <c r="J60" t="n">
+        <v>130</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2080023872.982236</v>
+        <v>2499118475.66091</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1317891734877126</v>
+        <v>0.1685129319657632</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03090830373327379</v>
+        <v>0.03161188896083401</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>3</v>
+      </c>
+      <c r="J61" t="n">
+        <v>118</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1612818155.523399</v>
+        <v>1671720380.692073</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1702064986192424</v>
+        <v>0.1856747337067671</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03216203589370872</v>
+        <v>0.03514293453541314</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2652,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4537061301.686004</v>
+        <v>4471798260.76462</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08802763312226067</v>
+        <v>0.0955627070736377</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04745134016264838</v>
+        <v>0.02911135886080213</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>65</v>
+      </c>
+      <c r="J63" t="n">
+        <v>133</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2687,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4099119316.158829</v>
+        <v>5518012179.538224</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1777997349493017</v>
+        <v>0.1707755374967784</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02257047569039429</v>
+        <v>0.03193819668222516</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>66</v>
+      </c>
+      <c r="J64" t="n">
+        <v>132</v>
+      </c>
+      <c r="K64" t="n">
+        <v>139.4858075289773</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4817819470.956518</v>
+        <v>4260271673.471112</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1375633591907036</v>
+        <v>0.1424350452662854</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02291487226226206</v>
+        <v>0.02656700494216983</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>111</v>
+      </c>
+      <c r="J65" t="n">
+        <v>132</v>
+      </c>
+      <c r="K65" t="n">
+        <v>148.0273855601809</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2761,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4567103532.541961</v>
+        <v>5284883880.419156</v>
       </c>
       <c r="F66" t="n">
-        <v>0.145903099280547</v>
+        <v>0.1374600023484429</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03736561729495718</v>
+        <v>0.048239363046292</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>65</v>
+      </c>
+      <c r="J66" t="n">
+        <v>133</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2306,17 +2802,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2923064941.317693</v>
+        <v>2153460787.094025</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08907366954557572</v>
+        <v>0.09271547774025468</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04803105919805521</v>
+        <v>0.03099093275415701</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2831,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4676394138.639615</v>
+        <v>4800398260.483464</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1227356425918876</v>
+        <v>0.1412400818563014</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04796384426539592</v>
+        <v>0.05098255225650305</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>67</v>
+      </c>
+      <c r="J68" t="n">
+        <v>132</v>
+      </c>
+      <c r="K68" t="n">
+        <v>136.748929123753</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1675359176.189748</v>
+        <v>2391733491.231093</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1748746549772494</v>
+        <v>0.1780284375347828</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04496081569497946</v>
+        <v>0.04098076320052376</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,22 +2903,31 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2595414309.247923</v>
+        <v>2527099450.877595</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08356494362832827</v>
+        <v>0.08429379925923418</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03483598920634666</v>
+        <v>0.03402512500107345</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>17</v>
+      </c>
+      <c r="J70" t="n">
+        <v>132</v>
+      </c>
+      <c r="K70" t="n">
+        <v>65.42358748124464</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2940,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3727465476.977912</v>
+        <v>4995315625.524263</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1741599891733744</v>
+        <v>0.1323676323208382</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02544191227848814</v>
+        <v>0.026388881032587</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>107</v>
+      </c>
+      <c r="J71" t="n">
+        <v>133</v>
+      </c>
+      <c r="K71" t="n">
+        <v>148.6879366808565</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2983,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1536435734.860974</v>
+        <v>1370949722.468873</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06635812271242419</v>
+        <v>0.06861932354749258</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03623591811820731</v>
+        <v>0.04087762114584263</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3018,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2898614276.679482</v>
+        <v>2808424371.769374</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06952062016389775</v>
+        <v>0.1024223858706772</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0503666614457615</v>
+        <v>0.03494616302363519</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>9</v>
+      </c>
+      <c r="J73" t="n">
+        <v>118</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3047,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2984400775.812172</v>
+        <v>2563872923.461487</v>
       </c>
       <c r="F74" t="n">
-        <v>0.159677773379021</v>
+        <v>0.1210317217314196</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0297146243603213</v>
+        <v>0.02957389450718553</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>43</v>
+      </c>
+      <c r="J74" t="n">
+        <v>129</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2317366739.726272</v>
+        <v>2447767091.8306</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1072943537316772</v>
+        <v>0.1033878819135506</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03226922662554126</v>
+        <v>0.03533162702495157</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3117,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3857299963.245908</v>
+        <v>4157035249.355234</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1206618044138347</v>
+        <v>0.1161613332672592</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02478037046265479</v>
+        <v>0.02110851116350251</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>61</v>
+      </c>
+      <c r="J76" t="n">
+        <v>133</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2083937151.973829</v>
+        <v>1804273768.811169</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1405900833356673</v>
+        <v>0.1358427533881368</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01962852816286119</v>
+        <v>0.0244462754961619</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3187,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2938594466.241199</v>
+        <v>3470284689.158066</v>
       </c>
       <c r="F78" t="n">
-        <v>0.136211237392475</v>
+        <v>0.0885793762591751</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04588247531126904</v>
+        <v>0.05316752183223601</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>66</v>
+      </c>
+      <c r="J78" t="n">
+        <v>132</v>
+      </c>
+      <c r="K78" t="n">
+        <v>134.5122370701805</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3230,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1406931049.637216</v>
+        <v>1234803368.686494</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1230120169522834</v>
+        <v>0.141437443770701</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03009957571863981</v>
+        <v>0.0262263234361403</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3259,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4206983940.329539</v>
+        <v>4727536848.108251</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07094839929359915</v>
+        <v>0.06760873563138964</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03735919505408022</v>
+        <v>0.02888089002897365</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>64</v>
+      </c>
+      <c r="J80" t="n">
+        <v>133</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4970744449.848108</v>
+        <v>4292054143.510657</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1283468242081624</v>
+        <v>0.1371356456564184</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02851123627002281</v>
+        <v>0.02188612348516952</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>60</v>
+      </c>
+      <c r="J81" t="n">
+        <v>133</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3663803985.959436</v>
+        <v>4080651963.030993</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1382708090977629</v>
+        <v>0.1997499185967896</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02901374909039901</v>
+        <v>0.02712953117143881</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>94</v>
+      </c>
+      <c r="J82" t="n">
+        <v>133</v>
+      </c>
+      <c r="K82" t="n">
+        <v>154.9060894549602</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1870379981.972625</v>
+        <v>2463066851.522632</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1466096369734923</v>
+        <v>0.1579377450281984</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0451282206465649</v>
+        <v>0.03076801658040788</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2404328152.921909</v>
+        <v>2053179264.219045</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1165275778631014</v>
+        <v>0.08772585305987497</v>
       </c>
       <c r="G84" t="n">
-        <v>0.034648798904222</v>
+        <v>0.03265625018578973</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,16 +3442,25 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3431140653.663096</v>
+        <v>3560697527.91656</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1233690960486336</v>
+        <v>0.140757236744516</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0443498665248447</v>
+        <v>0.05576632654640602</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>20</v>
+      </c>
+      <c r="J85" t="n">
+        <v>133</v>
+      </c>
+      <c r="K85" t="n">
+        <v>148.0754947937171</v>
       </c>
     </row>
     <row r="86">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1883459616.923982</v>
+        <v>1788565030.466316</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1081816607810736</v>
+        <v>0.1499606124420752</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02031250540163661</v>
+        <v>0.0222076276308778</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1123145506.667356</v>
+        <v>1191488857.039714</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1246287200308026</v>
+        <v>0.1522744625995951</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03734333000116729</v>
+        <v>0.0306812999041518</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3549,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3008600674.939997</v>
+        <v>3051225902.205406</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1191807592751177</v>
+        <v>0.124380703527812</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03057575161386226</v>
+        <v>0.03163879625539795</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>18</v>
+      </c>
+      <c r="J88" t="n">
+        <v>122</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3584,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2851025769.713114</v>
+        <v>2238512896.403806</v>
       </c>
       <c r="F89" t="n">
-        <v>0.136438795804004</v>
+        <v>0.152423354318669</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03337332412157164</v>
+        <v>0.02679452529364881</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>11</v>
+      </c>
+      <c r="J89" t="n">
+        <v>124</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1761058754.623022</v>
+        <v>1934931298.245789</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1212450172694949</v>
+        <v>0.09621753280172055</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03802783299079117</v>
+        <v>0.04365284835923215</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1513399492.536548</v>
+        <v>1284475251.572125</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1684510242347499</v>
+        <v>0.1446509285802986</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0411416258025195</v>
+        <v>0.04402925705970168</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2220970211.294384</v>
+        <v>2330722996.795295</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1028305815334494</v>
+        <v>0.06927406774489658</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0406495957497369</v>
+        <v>0.02877640673823823</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3900224410.42064</v>
+        <v>3531555877.244796</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1208696325287199</v>
+        <v>0.1100703041730579</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03328423400812897</v>
+        <v>0.05145606286275047</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>60</v>
+      </c>
+      <c r="J93" t="n">
+        <v>131</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3062,17 +3759,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1884331668.234333</v>
+        <v>2358889095.206715</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1513855794347447</v>
+        <v>0.1347369841730161</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02890626192756179</v>
+        <v>0.03793217677120623</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2697379399.836927</v>
+        <v>3124018713.813819</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1367825391930141</v>
+        <v>0.1016067688239608</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04629135808212909</v>
+        <v>0.0436205423268211</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3829,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2319865700.785209</v>
+        <v>1615556438.41449</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1143165353870025</v>
+        <v>0.1324605068876917</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04409411446016874</v>
+        <v>0.04110864606150218</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,17 +3864,24 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3957648444.416944</v>
+        <v>5138698718.755989</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1517600857128711</v>
+        <v>0.1505652144008924</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01789951613253495</v>
+        <v>0.02742439228920491</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>63</v>
+      </c>
+      <c r="J97" t="n">
+        <v>133</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3174,16 +3899,25 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3726273105.691156</v>
+        <v>2711526977.446943</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1118421712944573</v>
+        <v>0.08894106433667064</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02100635099471243</v>
+        <v>0.02489404635909473</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>32</v>
+      </c>
+      <c r="J98" t="n">
+        <v>132</v>
+      </c>
+      <c r="K98" t="n">
+        <v>70.16532969086367</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2342601913.162253</v>
+        <v>2746240924.912433</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1193309873127947</v>
+        <v>0.08994926223638391</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03549201434065118</v>
+        <v>0.03008773741444057</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3295307940.389128</v>
+        <v>4180553679.698351</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1187715208358484</v>
+        <v>0.1384961253169402</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02546198091193994</v>
+        <v>0.02049906330601962</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>54</v>
+      </c>
+      <c r="J100" t="n">
+        <v>133</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2245036210.765714</v>
+        <v>3077636210.768176</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1639728393405772</v>
+        <v>0.1386081268767248</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04048684624314993</v>
+        <v>0.04105035534471395</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>8</v>
+      </c>
+      <c r="J101" t="n">
+        <v>131</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
